--- a/docs/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-203_組織一覧(サンプル＆ガイド).xlsx
+++ b/docs/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-203_組織一覧(サンプル＆ガイド).xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ガイド!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">サンプル!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -723,16 +723,6 @@
     <phoneticPr fontId="12"/>
   </si>
   <si>
-    <t>TIS株式会社</t>
-    <rPh sb="1" eb="3">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -920,6 +910,13 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
+    <rPh sb="0" eb="1">
+      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4742,9 +4739,7 @@
       <c r="G31" s="23"/>
       <c r="H31" s="20"/>
       <c r="J31" s="24"/>
-      <c r="R31" s="25" t="s">
-        <v>57</v>
-      </c>
+      <c r="R31" s="25"/>
     </row>
     <row r="32" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="20"/>
@@ -4784,20 +4779,24 @@
     </row>
     <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="32" t="s">
         <v>58</v>
-      </c>
-      <c r="E39" s="32" t="s">
-        <v>59</v>
       </c>
       <c r="O39" s="29"/>
       <c r="P39" s="29"/>
       <c r="Q39" s="30"/>
       <c r="R39" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S39" s="29"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
     <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5272,7 +5271,7 @@
     <hyperlink ref="E39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -5303,7 +5302,7 @@
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5505,7 +5504,7 @@
       <c r="G25" s="36"/>
       <c r="H25" s="36"/>
       <c r="I25" s="36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J25" s="36"/>
       <c r="K25" s="36"/>
@@ -5538,7 +5537,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D26" s="37"/>
       <c r="E26" s="37"/>
@@ -6011,7 +6010,7 @@
       <c r="M43" s="56"/>
       <c r="N43" s="56"/>
       <c r="O43" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P43" s="40"/>
       <c r="Q43" s="40"/>
@@ -6045,7 +6044,7 @@
       <c r="G44" s="57"/>
       <c r="H44" s="57"/>
       <c r="I44" s="47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J44" s="47"/>
       <c r="K44" s="47"/>
@@ -6053,7 +6052,7 @@
       <c r="M44" s="47"/>
       <c r="N44" s="47"/>
       <c r="O44" s="48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P44" s="49"/>
       <c r="Q44" s="49"/>
@@ -6086,7 +6085,7 @@
       <c r="G45" s="47"/>
       <c r="H45" s="47"/>
       <c r="I45" s="46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J45" s="46"/>
       <c r="K45" s="46"/>
@@ -6094,7 +6093,7 @@
       <c r="M45" s="46"/>
       <c r="N45" s="46"/>
       <c r="O45" s="52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P45" s="53"/>
       <c r="Q45" s="53"/>
@@ -6178,7 +6177,7 @@
       <c r="M47" s="46"/>
       <c r="N47" s="46"/>
       <c r="O47" s="52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P47" s="53"/>
       <c r="Q47" s="53"/>
@@ -6211,7 +6210,7 @@
       <c r="G48" s="47"/>
       <c r="H48" s="47"/>
       <c r="I48" s="46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J48" s="46"/>
       <c r="K48" s="46"/>
@@ -6219,7 +6218,7 @@
       <c r="M48" s="46"/>
       <c r="N48" s="46"/>
       <c r="O48" s="52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P48" s="53"/>
       <c r="Q48" s="53"/>
@@ -6254,7 +6253,7 @@
       <c r="G49" s="51"/>
       <c r="H49" s="51"/>
       <c r="I49" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J49" s="46"/>
       <c r="K49" s="46"/>
@@ -6262,7 +6261,7 @@
       <c r="M49" s="46"/>
       <c r="N49" s="46"/>
       <c r="O49" s="52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P49" s="53"/>
       <c r="Q49" s="53"/>
@@ -6295,7 +6294,7 @@
       <c r="G50" s="45"/>
       <c r="H50" s="45"/>
       <c r="I50" s="46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J50" s="46"/>
       <c r="K50" s="46"/>
@@ -6624,7 +6623,7 @@
       <c r="G61" s="45"/>
       <c r="H61" s="45"/>
       <c r="I61" s="46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J61" s="46"/>
       <c r="K61" s="46"/>
@@ -6697,7 +6696,7 @@
         <v>2</v>
       </c>
       <c r="C63" s="51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D63" s="51"/>
       <c r="E63" s="51"/>

--- a/docs/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-203_組織一覧(サンプル＆ガイド).xlsx
+++ b/docs/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-203_組織一覧(サンプル＆ガイド).xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ガイド!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">サンプル!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -723,6 +723,16 @@
     <phoneticPr fontId="12"/>
   </si>
   <si>
+    <t>TIS株式会社</t>
+    <rPh sb="1" eb="3">
+      <t>カブシキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイシャ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -910,13 +920,6 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>キジュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
-    <rPh sb="0" eb="1">
-      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4739,7 +4742,9 @@
       <c r="G31" s="23"/>
       <c r="H31" s="20"/>
       <c r="J31" s="24"/>
-      <c r="R31" s="25"/>
+      <c r="R31" s="25" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="32" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="20"/>
@@ -4779,24 +4784,20 @@
     </row>
     <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O39" s="29"/>
       <c r="P39" s="29"/>
       <c r="Q39" s="30"/>
       <c r="R39" s="30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S39" s="29"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
+    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5271,7 +5272,7 @@
     <hyperlink ref="E39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -5302,7 +5303,7 @@
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5504,7 +5505,7 @@
       <c r="G25" s="36"/>
       <c r="H25" s="36"/>
       <c r="I25" s="36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J25" s="36"/>
       <c r="K25" s="36"/>
@@ -5537,7 +5538,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D26" s="37"/>
       <c r="E26" s="37"/>
@@ -6010,7 +6011,7 @@
       <c r="M43" s="56"/>
       <c r="N43" s="56"/>
       <c r="O43" s="39" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P43" s="40"/>
       <c r="Q43" s="40"/>
@@ -6044,7 +6045,7 @@
       <c r="G44" s="57"/>
       <c r="H44" s="57"/>
       <c r="I44" s="47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J44" s="47"/>
       <c r="K44" s="47"/>
@@ -6052,7 +6053,7 @@
       <c r="M44" s="47"/>
       <c r="N44" s="47"/>
       <c r="O44" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P44" s="49"/>
       <c r="Q44" s="49"/>
@@ -6085,7 +6086,7 @@
       <c r="G45" s="47"/>
       <c r="H45" s="47"/>
       <c r="I45" s="46" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J45" s="46"/>
       <c r="K45" s="46"/>
@@ -6093,7 +6094,7 @@
       <c r="M45" s="46"/>
       <c r="N45" s="46"/>
       <c r="O45" s="52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P45" s="53"/>
       <c r="Q45" s="53"/>
@@ -6177,7 +6178,7 @@
       <c r="M47" s="46"/>
       <c r="N47" s="46"/>
       <c r="O47" s="52" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P47" s="53"/>
       <c r="Q47" s="53"/>
@@ -6210,7 +6211,7 @@
       <c r="G48" s="47"/>
       <c r="H48" s="47"/>
       <c r="I48" s="46" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J48" s="46"/>
       <c r="K48" s="46"/>
@@ -6218,7 +6219,7 @@
       <c r="M48" s="46"/>
       <c r="N48" s="46"/>
       <c r="O48" s="52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P48" s="53"/>
       <c r="Q48" s="53"/>
@@ -6253,7 +6254,7 @@
       <c r="G49" s="51"/>
       <c r="H49" s="51"/>
       <c r="I49" s="46" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J49" s="46"/>
       <c r="K49" s="46"/>
@@ -6261,7 +6262,7 @@
       <c r="M49" s="46"/>
       <c r="N49" s="46"/>
       <c r="O49" s="52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P49" s="53"/>
       <c r="Q49" s="53"/>
@@ -6294,7 +6295,7 @@
       <c r="G50" s="45"/>
       <c r="H50" s="45"/>
       <c r="I50" s="46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J50" s="46"/>
       <c r="K50" s="46"/>
@@ -6623,7 +6624,7 @@
       <c r="G61" s="45"/>
       <c r="H61" s="45"/>
       <c r="I61" s="46" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J61" s="46"/>
       <c r="K61" s="46"/>
@@ -6696,7 +6697,7 @@
         <v>2</v>
       </c>
       <c r="C63" s="51" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D63" s="51"/>
       <c r="E63" s="51"/>

--- a/docs/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-203_組織一覧(サンプル＆ガイド).xlsx
+++ b/docs/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-203_組織一覧(サンプル＆ガイド).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F9C3FC-747E-4283-BF91-A1058B96164F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="10575" windowHeight="5700"/>
+    <workbookView xWindow="2715" yWindow="2310" windowWidth="17850" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -18,12 +19,22 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ガイド!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">サンプル!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
   <si>
     <t>記述内容</t>
     <rPh sb="0" eb="2">
@@ -723,17 +734,6 @@
     <phoneticPr fontId="12"/>
   </si>
   <si>
-    <t xml:space="preserve">この 作品 は </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クリエイティブ・コモンズ 表示 - 継承 4.0 国際 ライセンス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>の下に提供されています。</t>
-  </si>
-  <si>
     <t>経営企画課</t>
     <rPh sb="0" eb="2">
       <t>ケイエイ</t>
@@ -913,18 +913,11 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
-    <rPh sb="0" eb="1">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
@@ -1519,24 +1512,6 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1555,26 +1530,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1584,39 +1556,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1644,6 +1583,60 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1724,6 +1717,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1745,7 +1741,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 7610"/>
+        <xdr:cNvPr id="2" name="Text Box 7610">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1843,52 +1845,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>94137</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="276225" y="6715125"/>
-          <a:ext cx="838200" cy="265587"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1909,7 +1865,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="直線矢印コネクタ 1"/>
+        <xdr:cNvPr id="2" name="直線矢印コネクタ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="3"/>
           <a:endCxn id="5" idx="1"/>
@@ -1959,7 +1921,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2046,7 +2014,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2133,7 +2107,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2237,7 +2217,13 @@
     <xdr:ext cx="1005403" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2296,7 +2282,13 @@
     <xdr:ext cx="1005403" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2366,7 +2358,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2457,7 +2455,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="カギ線コネクタ 10"/>
+        <xdr:cNvPr id="11" name="カギ線コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="5" idx="3"/>
           <a:endCxn id="6" idx="1"/>
@@ -2507,7 +2511,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="カギ線コネクタ 12"/>
+        <xdr:cNvPr id="13" name="カギ線コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="5" idx="3"/>
           <a:endCxn id="10" idx="1"/>
@@ -2552,7 +2562,13 @@
     <xdr:ext cx="1210588" cy="492443"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="テキスト ボックス 15"/>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2665,7 +2681,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="98" name="カギ線コネクタ 97"/>
+        <xdr:cNvPr id="98" name="カギ線コネクタ 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000062000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="45" idx="2"/>
           <a:endCxn id="51" idx="0"/>
@@ -2717,7 +2739,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="107" name="カギ線コネクタ 106"/>
+        <xdr:cNvPr id="107" name="カギ線コネクタ 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="39" idx="2"/>
           <a:endCxn id="45" idx="0"/>
@@ -2769,7 +2797,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="角丸四角形 38"/>
+        <xdr:cNvPr id="39" name="角丸四角形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2827,7 +2861,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="角丸四角形 44"/>
+        <xdr:cNvPr id="45" name="角丸四角形 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2885,7 +2925,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="角丸四角形 50"/>
+        <xdr:cNvPr id="51" name="角丸四角形 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2943,7 +2989,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="角丸四角形 52"/>
+        <xdr:cNvPr id="53" name="角丸四角形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3001,7 +3053,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="角丸四角形 53"/>
+        <xdr:cNvPr id="54" name="角丸四角形 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3059,7 +3117,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="角丸四角形 54"/>
+        <xdr:cNvPr id="55" name="角丸四角形 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3117,7 +3181,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="58" name="カギ線コネクタ 57"/>
+        <xdr:cNvPr id="58" name="カギ線コネクタ 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="45" idx="2"/>
           <a:endCxn id="53" idx="0"/>
@@ -3169,7 +3239,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="61" name="カギ線コネクタ 60"/>
+        <xdr:cNvPr id="61" name="カギ線コネクタ 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="45" idx="2"/>
           <a:endCxn id="54" idx="0"/>
@@ -3221,7 +3297,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="83" name="角丸四角形 82"/>
+        <xdr:cNvPr id="83" name="角丸四角形 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000053000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3279,7 +3361,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="85" name="角丸四角形 84"/>
+        <xdr:cNvPr id="85" name="角丸四角形 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000055000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3337,7 +3425,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="86" name="角丸四角形 85"/>
+        <xdr:cNvPr id="86" name="角丸四角形 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000056000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3395,7 +3489,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="87" name="カギ線コネクタ 86"/>
+        <xdr:cNvPr id="87" name="カギ線コネクタ 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000057000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="55" idx="2"/>
           <a:endCxn id="83" idx="0"/>
@@ -3447,7 +3547,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="88" name="カギ線コネクタ 87"/>
+        <xdr:cNvPr id="88" name="カギ線コネクタ 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000058000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="55" idx="2"/>
           <a:endCxn id="85" idx="0"/>
@@ -3499,7 +3605,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="90" name="カギ線コネクタ 89"/>
+        <xdr:cNvPr id="90" name="カギ線コネクタ 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="55" idx="2"/>
           <a:endCxn id="86" idx="0"/>
@@ -3551,7 +3663,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="91" name="カギ線コネクタ 90"/>
+        <xdr:cNvPr id="91" name="カギ線コネクタ 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="39" idx="2"/>
           <a:endCxn id="55" idx="0"/>
@@ -3603,7 +3721,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="角丸四角形 92"/>
+        <xdr:cNvPr id="93" name="角丸四角形 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3661,7 +3785,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="94" name="角丸四角形 93"/>
+        <xdr:cNvPr id="94" name="角丸四角形 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3719,7 +3849,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="96" name="角丸四角形 95"/>
+        <xdr:cNvPr id="96" name="角丸四角形 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000060000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3777,7 +3913,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="97" name="角丸四角形 96"/>
+        <xdr:cNvPr id="97" name="角丸四角形 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000061000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3835,7 +3977,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="100" name="角丸四角形 99"/>
+        <xdr:cNvPr id="100" name="角丸四角形 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000064000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3893,7 +4041,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="101" name="角丸四角形 100"/>
+        <xdr:cNvPr id="101" name="角丸四角形 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000065000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3951,7 +4105,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="109" name="角丸四角形 108"/>
+        <xdr:cNvPr id="109" name="角丸四角形 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4009,7 +4169,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="110" name="カギ線コネクタ 109"/>
+        <xdr:cNvPr id="110" name="カギ線コネクタ 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="93" idx="2"/>
           <a:endCxn id="94" idx="0"/>
@@ -4061,7 +4227,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="111" name="カギ線コネクタ 110"/>
+        <xdr:cNvPr id="111" name="カギ線コネクタ 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="93" idx="2"/>
           <a:endCxn id="96" idx="0"/>
@@ -4113,7 +4285,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="112" name="カギ線コネクタ 111"/>
+        <xdr:cNvPr id="112" name="カギ線コネクタ 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000070000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="93" idx="2"/>
           <a:endCxn id="97" idx="0"/>
@@ -4165,7 +4343,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="113" name="カギ線コネクタ 112"/>
+        <xdr:cNvPr id="113" name="カギ線コネクタ 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000071000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="100" idx="2"/>
           <a:endCxn id="101" idx="0"/>
@@ -4217,7 +4401,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="114" name="カギ線コネクタ 113"/>
+        <xdr:cNvPr id="114" name="カギ線コネクタ 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000072000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="100" idx="2"/>
           <a:endCxn id="109" idx="0"/>
@@ -4269,7 +4459,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="115" name="カギ線コネクタ 114"/>
+        <xdr:cNvPr id="115" name="カギ線コネクタ 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000073000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="39" idx="2"/>
           <a:endCxn id="93" idx="0"/>
@@ -4321,7 +4517,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="116" name="カギ線コネクタ 115"/>
+        <xdr:cNvPr id="116" name="カギ線コネクタ 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000074000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="39" idx="2"/>
           <a:endCxn id="100" idx="0"/>
@@ -4362,7 +4564,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4404,7 +4606,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4437,9 +4639,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4472,6 +4691,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4647,7 +4883,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S508"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -4753,58 +4989,47 @@
       <c r="R32" s="28"/>
       <c r="S32" s="29"/>
     </row>
-    <row r="33" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="26"/>
       <c r="P36" s="26"/>
       <c r="Q36" s="29"/>
       <c r="R36" s="29"/>
       <c r="S36" s="29"/>
     </row>
-    <row r="37" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="30"/>
       <c r="P37" s="29"/>
       <c r="Q37" s="30"/>
       <c r="R37" s="29"/>
       <c r="S37" s="31"/>
     </row>
-    <row r="38" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="30"/>
       <c r="P38" s="29"/>
       <c r="Q38" s="30"/>
       <c r="R38" s="29"/>
       <c r="S38" s="30"/>
     </row>
-    <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E39" s="32" t="s">
-        <v>58</v>
-      </c>
+    <row r="39" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E39" s="32"/>
       <c r="O39" s="29"/>
       <c r="P39" s="29"/>
       <c r="Q39" s="30"/>
-      <c r="R39" s="30" t="s">
-        <v>59</v>
-      </c>
+      <c r="R39" s="30"/>
       <c r="S39" s="29"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5267,17 +5492,14 @@
     <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="E39" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH44"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -5302,7 +5524,7 @@
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5361,85 +5583,85 @@
       <c r="B19" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="39" t="s">
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="40"/>
-      <c r="U19" s="40"/>
-      <c r="V19" s="40"/>
-      <c r="W19" s="40"/>
-      <c r="X19" s="40"/>
-      <c r="Y19" s="41"/>
-      <c r="Z19" s="39" t="s">
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="AA19" s="40"/>
-      <c r="AB19" s="40"/>
-      <c r="AC19" s="40"/>
-      <c r="AD19" s="40"/>
-      <c r="AE19" s="40"/>
-      <c r="AF19" s="40"/>
-      <c r="AG19" s="40"/>
-      <c r="AH19" s="41"/>
+      <c r="AA19" s="34"/>
+      <c r="AB19" s="34"/>
+      <c r="AC19" s="34"/>
+      <c r="AD19" s="34"/>
+      <c r="AE19" s="34"/>
+      <c r="AF19" s="34"/>
+      <c r="AG19" s="34"/>
+      <c r="AH19" s="35"/>
     </row>
     <row r="20" spans="2:34" s="1" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B20" s="11">
         <v>1</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="42" t="s">
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="43"/>
-      <c r="S20" s="43"/>
-      <c r="T20" s="43"/>
-      <c r="U20" s="43"/>
-      <c r="V20" s="43"/>
-      <c r="W20" s="43"/>
-      <c r="X20" s="43"/>
-      <c r="Y20" s="44"/>
-      <c r="Z20" s="42"/>
-      <c r="AA20" s="43"/>
-      <c r="AB20" s="43"/>
-      <c r="AC20" s="43"/>
-      <c r="AD20" s="43"/>
-      <c r="AE20" s="43"/>
-      <c r="AF20" s="43"/>
-      <c r="AG20" s="43"/>
-      <c r="AH20" s="44"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="37"/>
+      <c r="AB20" s="37"/>
+      <c r="AC20" s="37"/>
+      <c r="AD20" s="37"/>
+      <c r="AE20" s="37"/>
+      <c r="AF20" s="37"/>
+      <c r="AG20" s="37"/>
+      <c r="AH20" s="38"/>
     </row>
     <row r="21" spans="2:34" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="22" spans="2:34" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -5452,126 +5674,126 @@
       <c r="B24" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="39" t="s">
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="40"/>
-      <c r="X24" s="40"/>
-      <c r="Y24" s="41"/>
-      <c r="Z24" s="39" t="s">
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="35"/>
+      <c r="Z24" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="AA24" s="40"/>
-      <c r="AB24" s="40"/>
-      <c r="AC24" s="40"/>
-      <c r="AD24" s="40"/>
-      <c r="AE24" s="40"/>
-      <c r="AF24" s="40"/>
-      <c r="AG24" s="40"/>
-      <c r="AH24" s="41"/>
+      <c r="AA24" s="34"/>
+      <c r="AB24" s="34"/>
+      <c r="AC24" s="34"/>
+      <c r="AD24" s="34"/>
+      <c r="AE24" s="34"/>
+      <c r="AF24" s="34"/>
+      <c r="AG24" s="34"/>
+      <c r="AH24" s="35"/>
     </row>
     <row r="25" spans="2:34" s="1" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B25" s="13">
         <v>1</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="36"/>
-      <c r="Y25" s="36"/>
-      <c r="Z25" s="36"/>
-      <c r="AA25" s="36"/>
-      <c r="AB25" s="36"/>
-      <c r="AC25" s="36"/>
-      <c r="AD25" s="36"/>
-      <c r="AE25" s="36"/>
-      <c r="AF25" s="36"/>
-      <c r="AG25" s="36"/>
-      <c r="AH25" s="36"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="39"/>
+      <c r="X25" s="39"/>
+      <c r="Y25" s="39"/>
+      <c r="Z25" s="39"/>
+      <c r="AA25" s="39"/>
+      <c r="AB25" s="39"/>
+      <c r="AC25" s="39"/>
+      <c r="AD25" s="39"/>
+      <c r="AE25" s="39"/>
+      <c r="AF25" s="39"/>
+      <c r="AG25" s="39"/>
+      <c r="AH25" s="39"/>
     </row>
     <row r="26" spans="2:34" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="11">
         <v>2</v>
       </c>
-      <c r="C26" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="38" t="s">
+      <c r="C26" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="38"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="38"/>
-      <c r="W26" s="38"/>
-      <c r="X26" s="38"/>
-      <c r="Y26" s="38"/>
-      <c r="Z26" s="38"/>
-      <c r="AA26" s="38"/>
-      <c r="AB26" s="38"/>
-      <c r="AC26" s="38"/>
-      <c r="AD26" s="38"/>
-      <c r="AE26" s="38"/>
-      <c r="AF26" s="38"/>
-      <c r="AG26" s="38"/>
-      <c r="AH26" s="38"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="41"/>
+      <c r="V26" s="41"/>
+      <c r="W26" s="41"/>
+      <c r="X26" s="41"/>
+      <c r="Y26" s="41"/>
+      <c r="Z26" s="41"/>
+      <c r="AA26" s="41"/>
+      <c r="AB26" s="41"/>
+      <c r="AC26" s="41"/>
+      <c r="AD26" s="41"/>
+      <c r="AE26" s="41"/>
+      <c r="AF26" s="41"/>
+      <c r="AG26" s="41"/>
+      <c r="AH26" s="41"/>
     </row>
     <row r="27" spans="2:34" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="28" spans="2:34" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -5584,208 +5806,208 @@
       <c r="B30" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="39" t="s">
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="40"/>
-      <c r="S30" s="40"/>
-      <c r="T30" s="40"/>
-      <c r="U30" s="40"/>
-      <c r="V30" s="40"/>
-      <c r="W30" s="40"/>
-      <c r="X30" s="40"/>
-      <c r="Y30" s="41"/>
-      <c r="Z30" s="39" t="s">
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34"/>
+      <c r="S30" s="34"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="34"/>
+      <c r="V30" s="34"/>
+      <c r="W30" s="34"/>
+      <c r="X30" s="34"/>
+      <c r="Y30" s="35"/>
+      <c r="Z30" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="AA30" s="40"/>
-      <c r="AB30" s="40"/>
-      <c r="AC30" s="40"/>
-      <c r="AD30" s="40"/>
-      <c r="AE30" s="40"/>
-      <c r="AF30" s="40"/>
-      <c r="AG30" s="40"/>
-      <c r="AH30" s="41"/>
+      <c r="AA30" s="34"/>
+      <c r="AB30" s="34"/>
+      <c r="AC30" s="34"/>
+      <c r="AD30" s="34"/>
+      <c r="AE30" s="34"/>
+      <c r="AF30" s="34"/>
+      <c r="AG30" s="34"/>
+      <c r="AH30" s="35"/>
     </row>
     <row r="31" spans="2:34" s="1" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B31" s="13">
         <v>1</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36" t="s">
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="36"/>
-      <c r="V31" s="36"/>
-      <c r="W31" s="36"/>
-      <c r="X31" s="36"/>
-      <c r="Y31" s="36"/>
-      <c r="Z31" s="36"/>
-      <c r="AA31" s="36"/>
-      <c r="AB31" s="36"/>
-      <c r="AC31" s="36"/>
-      <c r="AD31" s="36"/>
-      <c r="AE31" s="36"/>
-      <c r="AF31" s="36"/>
-      <c r="AG31" s="36"/>
-      <c r="AH31" s="36"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="39"/>
+      <c r="V31" s="39"/>
+      <c r="W31" s="39"/>
+      <c r="X31" s="39"/>
+      <c r="Y31" s="39"/>
+      <c r="Z31" s="39"/>
+      <c r="AA31" s="39"/>
+      <c r="AB31" s="39"/>
+      <c r="AC31" s="39"/>
+      <c r="AD31" s="39"/>
+      <c r="AE31" s="39"/>
+      <c r="AF31" s="39"/>
+      <c r="AG31" s="39"/>
+      <c r="AH31" s="39"/>
     </row>
     <row r="32" spans="2:34" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="11">
         <v>2</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="33" t="s">
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="34"/>
-      <c r="S32" s="34"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="34"/>
-      <c r="V32" s="34"/>
-      <c r="W32" s="34"/>
-      <c r="X32" s="34"/>
-      <c r="Y32" s="35"/>
-      <c r="Z32" s="33"/>
-      <c r="AA32" s="34"/>
-      <c r="AB32" s="34"/>
-      <c r="AC32" s="34"/>
-      <c r="AD32" s="34"/>
-      <c r="AE32" s="34"/>
-      <c r="AF32" s="34"/>
-      <c r="AG32" s="34"/>
-      <c r="AH32" s="35"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="43"/>
+      <c r="T32" s="43"/>
+      <c r="U32" s="43"/>
+      <c r="V32" s="43"/>
+      <c r="W32" s="43"/>
+      <c r="X32" s="43"/>
+      <c r="Y32" s="44"/>
+      <c r="Z32" s="42"/>
+      <c r="AA32" s="43"/>
+      <c r="AB32" s="43"/>
+      <c r="AC32" s="43"/>
+      <c r="AD32" s="43"/>
+      <c r="AE32" s="43"/>
+      <c r="AF32" s="43"/>
+      <c r="AG32" s="43"/>
+      <c r="AH32" s="44"/>
     </row>
     <row r="33" spans="1:34" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="11">
         <v>3</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="33" t="s">
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="34"/>
-      <c r="S33" s="34"/>
-      <c r="T33" s="34"/>
-      <c r="U33" s="34"/>
-      <c r="V33" s="34"/>
-      <c r="W33" s="34"/>
-      <c r="X33" s="34"/>
-      <c r="Y33" s="35"/>
-      <c r="Z33" s="33"/>
-      <c r="AA33" s="34"/>
-      <c r="AB33" s="34"/>
-      <c r="AC33" s="34"/>
-      <c r="AD33" s="34"/>
-      <c r="AE33" s="34"/>
-      <c r="AF33" s="34"/>
-      <c r="AG33" s="34"/>
-      <c r="AH33" s="35"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="43"/>
+      <c r="T33" s="43"/>
+      <c r="U33" s="43"/>
+      <c r="V33" s="43"/>
+      <c r="W33" s="43"/>
+      <c r="X33" s="43"/>
+      <c r="Y33" s="44"/>
+      <c r="Z33" s="42"/>
+      <c r="AA33" s="43"/>
+      <c r="AB33" s="43"/>
+      <c r="AC33" s="43"/>
+      <c r="AD33" s="43"/>
+      <c r="AE33" s="43"/>
+      <c r="AF33" s="43"/>
+      <c r="AG33" s="43"/>
+      <c r="AH33" s="44"/>
     </row>
     <row r="34" spans="1:34" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="11">
         <v>4</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="33" t="s">
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="34"/>
-      <c r="P34" s="34"/>
-      <c r="Q34" s="34"/>
-      <c r="R34" s="34"/>
-      <c r="S34" s="34"/>
-      <c r="T34" s="34"/>
-      <c r="U34" s="34"/>
-      <c r="V34" s="34"/>
-      <c r="W34" s="34"/>
-      <c r="X34" s="34"/>
-      <c r="Y34" s="35"/>
-      <c r="Z34" s="33"/>
-      <c r="AA34" s="34"/>
-      <c r="AB34" s="34"/>
-      <c r="AC34" s="34"/>
-      <c r="AD34" s="34"/>
-      <c r="AE34" s="34"/>
-      <c r="AF34" s="34"/>
-      <c r="AG34" s="34"/>
-      <c r="AH34" s="35"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="43"/>
+      <c r="S34" s="43"/>
+      <c r="T34" s="43"/>
+      <c r="U34" s="43"/>
+      <c r="V34" s="43"/>
+      <c r="W34" s="43"/>
+      <c r="X34" s="43"/>
+      <c r="Y34" s="44"/>
+      <c r="Z34" s="42"/>
+      <c r="AA34" s="43"/>
+      <c r="AB34" s="43"/>
+      <c r="AC34" s="43"/>
+      <c r="AD34" s="43"/>
+      <c r="AE34" s="43"/>
+      <c r="AF34" s="43"/>
+      <c r="AG34" s="43"/>
+      <c r="AH34" s="44"/>
     </row>
     <row r="35" spans="1:34" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="36" spans="1:34" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -5803,36 +6025,36 @@
     <row r="44" spans="1:34" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="I33:Y33"/>
+    <mergeCell ref="Z33:AH33"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="I34:Y34"/>
+    <mergeCell ref="Z34:AH34"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="I31:Y31"/>
+    <mergeCell ref="Z31:AH31"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="I32:Y32"/>
+    <mergeCell ref="Z32:AH32"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="I26:Y26"/>
+    <mergeCell ref="Z26:AH26"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="I30:Y30"/>
+    <mergeCell ref="Z30:AH30"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="I24:Y24"/>
+    <mergeCell ref="Z24:AH24"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="I25:Y25"/>
+    <mergeCell ref="Z25:AH25"/>
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="I19:Y19"/>
     <mergeCell ref="Z19:AH19"/>
     <mergeCell ref="C20:H20"/>
     <mergeCell ref="I20:Y20"/>
     <mergeCell ref="Z20:AH20"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="I24:Y24"/>
-    <mergeCell ref="Z24:AH24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="I25:Y25"/>
-    <mergeCell ref="Z25:AH25"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="I26:Y26"/>
-    <mergeCell ref="Z26:AH26"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="I30:Y30"/>
-    <mergeCell ref="Z30:AH30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="I31:Y31"/>
-    <mergeCell ref="Z31:AH31"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="I32:Y32"/>
-    <mergeCell ref="Z32:AH32"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="I33:Y33"/>
-    <mergeCell ref="Z33:AH33"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="I34:Y34"/>
-    <mergeCell ref="Z34:AH34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -5848,7 +6070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BC66"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -5993,419 +6215,419 @@
       <c r="B43" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="56" t="s">
+      <c r="C43" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="56" t="s">
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="70"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="J43" s="56"/>
-      <c r="K43" s="56"/>
-      <c r="L43" s="56"/>
-      <c r="M43" s="56"/>
-      <c r="N43" s="56"/>
-      <c r="O43" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="40"/>
-      <c r="S43" s="40"/>
-      <c r="T43" s="40"/>
-      <c r="U43" s="40"/>
-      <c r="V43" s="40"/>
-      <c r="W43" s="40"/>
-      <c r="X43" s="40"/>
-      <c r="Y43" s="40"/>
-      <c r="Z43" s="40"/>
-      <c r="AA43" s="40"/>
-      <c r="AB43" s="40"/>
-      <c r="AC43" s="40"/>
-      <c r="AD43" s="40"/>
-      <c r="AE43" s="40"/>
-      <c r="AF43" s="40"/>
-      <c r="AG43" s="41"/>
+      <c r="J43" s="70"/>
+      <c r="K43" s="70"/>
+      <c r="L43" s="70"/>
+      <c r="M43" s="70"/>
+      <c r="N43" s="70"/>
+      <c r="O43" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="34"/>
+      <c r="R43" s="34"/>
+      <c r="S43" s="34"/>
+      <c r="T43" s="34"/>
+      <c r="U43" s="34"/>
+      <c r="V43" s="34"/>
+      <c r="W43" s="34"/>
+      <c r="X43" s="34"/>
+      <c r="Y43" s="34"/>
+      <c r="Z43" s="34"/>
+      <c r="AA43" s="34"/>
+      <c r="AB43" s="34"/>
+      <c r="AC43" s="34"/>
+      <c r="AD43" s="34"/>
+      <c r="AE43" s="34"/>
+      <c r="AF43" s="34"/>
+      <c r="AG43" s="35"/>
     </row>
     <row r="44" spans="1:33" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B44" s="4">
         <v>1</v>
       </c>
-      <c r="C44" s="57" t="s">
+      <c r="C44" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="J44" s="47"/>
-      <c r="K44" s="47"/>
-      <c r="L44" s="47"/>
-      <c r="M44" s="47"/>
-      <c r="N44" s="47"/>
-      <c r="O44" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="P44" s="49"/>
-      <c r="Q44" s="49"/>
-      <c r="R44" s="49"/>
-      <c r="S44" s="49"/>
-      <c r="T44" s="49"/>
-      <c r="U44" s="49"/>
-      <c r="V44" s="49"/>
-      <c r="W44" s="49"/>
-      <c r="X44" s="49"/>
-      <c r="Y44" s="49"/>
-      <c r="Z44" s="49"/>
-      <c r="AA44" s="49"/>
-      <c r="AB44" s="49"/>
-      <c r="AC44" s="49"/>
-      <c r="AD44" s="49"/>
-      <c r="AE44" s="49"/>
-      <c r="AF44" s="49"/>
-      <c r="AG44" s="50"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="J44" s="62"/>
+      <c r="K44" s="62"/>
+      <c r="L44" s="62"/>
+      <c r="M44" s="62"/>
+      <c r="N44" s="62"/>
+      <c r="O44" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="P44" s="58"/>
+      <c r="Q44" s="58"/>
+      <c r="R44" s="58"/>
+      <c r="S44" s="58"/>
+      <c r="T44" s="58"/>
+      <c r="U44" s="58"/>
+      <c r="V44" s="58"/>
+      <c r="W44" s="58"/>
+      <c r="X44" s="58"/>
+      <c r="Y44" s="58"/>
+      <c r="Z44" s="58"/>
+      <c r="AA44" s="58"/>
+      <c r="AB44" s="58"/>
+      <c r="AC44" s="58"/>
+      <c r="AD44" s="58"/>
+      <c r="AE44" s="58"/>
+      <c r="AF44" s="58"/>
+      <c r="AG44" s="59"/>
     </row>
     <row r="45" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="5">
         <f>B44+1</f>
         <v>2</v>
       </c>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="J45" s="46"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="46"/>
-      <c r="M45" s="46"/>
-      <c r="N45" s="46"/>
-      <c r="O45" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="P45" s="53"/>
-      <c r="Q45" s="53"/>
-      <c r="R45" s="53"/>
-      <c r="S45" s="53"/>
-      <c r="T45" s="53"/>
-      <c r="U45" s="53"/>
-      <c r="V45" s="53"/>
-      <c r="W45" s="53"/>
-      <c r="X45" s="53"/>
-      <c r="Y45" s="53"/>
-      <c r="Z45" s="53"/>
-      <c r="AA45" s="53"/>
-      <c r="AB45" s="53"/>
-      <c r="AC45" s="53"/>
-      <c r="AD45" s="53"/>
-      <c r="AE45" s="53"/>
-      <c r="AF45" s="53"/>
-      <c r="AG45" s="54"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="62"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="62"/>
+      <c r="I45" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="J45" s="60"/>
+      <c r="K45" s="60"/>
+      <c r="L45" s="60"/>
+      <c r="M45" s="60"/>
+      <c r="N45" s="60"/>
+      <c r="O45" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" s="46"/>
+      <c r="Q45" s="46"/>
+      <c r="R45" s="46"/>
+      <c r="S45" s="46"/>
+      <c r="T45" s="46"/>
+      <c r="U45" s="46"/>
+      <c r="V45" s="46"/>
+      <c r="W45" s="46"/>
+      <c r="X45" s="46"/>
+      <c r="Y45" s="46"/>
+      <c r="Z45" s="46"/>
+      <c r="AA45" s="46"/>
+      <c r="AB45" s="46"/>
+      <c r="AC45" s="46"/>
+      <c r="AD45" s="46"/>
+      <c r="AE45" s="46"/>
+      <c r="AF45" s="46"/>
+      <c r="AG45" s="47"/>
     </row>
     <row r="46" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="5">
         <f>B45+1</f>
         <v>3</v>
       </c>
-      <c r="C46" s="51" t="s">
+      <c r="C46" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="46" t="s">
+      <c r="D46" s="64"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="64"/>
+      <c r="H46" s="64"/>
+      <c r="I46" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="J46" s="46"/>
-      <c r="K46" s="46"/>
-      <c r="L46" s="46"/>
-      <c r="M46" s="46"/>
-      <c r="N46" s="46"/>
-      <c r="O46" s="52" t="s">
+      <c r="J46" s="60"/>
+      <c r="K46" s="60"/>
+      <c r="L46" s="60"/>
+      <c r="M46" s="60"/>
+      <c r="N46" s="60"/>
+      <c r="O46" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="P46" s="53"/>
-      <c r="Q46" s="53"/>
-      <c r="R46" s="53"/>
-      <c r="S46" s="53"/>
-      <c r="T46" s="53"/>
-      <c r="U46" s="53"/>
-      <c r="V46" s="53"/>
-      <c r="W46" s="53"/>
-      <c r="X46" s="53"/>
-      <c r="Y46" s="53"/>
-      <c r="Z46" s="53"/>
-      <c r="AA46" s="53"/>
-      <c r="AB46" s="53"/>
-      <c r="AC46" s="53"/>
-      <c r="AD46" s="53"/>
-      <c r="AE46" s="53"/>
-      <c r="AF46" s="53"/>
-      <c r="AG46" s="54"/>
+      <c r="P46" s="46"/>
+      <c r="Q46" s="46"/>
+      <c r="R46" s="46"/>
+      <c r="S46" s="46"/>
+      <c r="T46" s="46"/>
+      <c r="U46" s="46"/>
+      <c r="V46" s="46"/>
+      <c r="W46" s="46"/>
+      <c r="X46" s="46"/>
+      <c r="Y46" s="46"/>
+      <c r="Z46" s="46"/>
+      <c r="AA46" s="46"/>
+      <c r="AB46" s="46"/>
+      <c r="AC46" s="46"/>
+      <c r="AD46" s="46"/>
+      <c r="AE46" s="46"/>
+      <c r="AF46" s="46"/>
+      <c r="AG46" s="47"/>
     </row>
     <row r="47" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="5">
         <f t="shared" ref="B47:B52" si="0">B46+1</f>
         <v>4</v>
       </c>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="46" t="s">
+      <c r="C47" s="65"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="J47" s="46"/>
-      <c r="K47" s="46"/>
-      <c r="L47" s="46"/>
-      <c r="M47" s="46"/>
-      <c r="N47" s="46"/>
-      <c r="O47" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="P47" s="53"/>
-      <c r="Q47" s="53"/>
-      <c r="R47" s="53"/>
-      <c r="S47" s="53"/>
-      <c r="T47" s="53"/>
-      <c r="U47" s="53"/>
-      <c r="V47" s="53"/>
-      <c r="W47" s="53"/>
-      <c r="X47" s="53"/>
-      <c r="Y47" s="53"/>
-      <c r="Z47" s="53"/>
-      <c r="AA47" s="53"/>
-      <c r="AB47" s="53"/>
-      <c r="AC47" s="53"/>
-      <c r="AD47" s="53"/>
-      <c r="AE47" s="53"/>
-      <c r="AF47" s="53"/>
-      <c r="AG47" s="54"/>
+      <c r="J47" s="60"/>
+      <c r="K47" s="60"/>
+      <c r="L47" s="60"/>
+      <c r="M47" s="60"/>
+      <c r="N47" s="60"/>
+      <c r="O47" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="P47" s="46"/>
+      <c r="Q47" s="46"/>
+      <c r="R47" s="46"/>
+      <c r="S47" s="46"/>
+      <c r="T47" s="46"/>
+      <c r="U47" s="46"/>
+      <c r="V47" s="46"/>
+      <c r="W47" s="46"/>
+      <c r="X47" s="46"/>
+      <c r="Y47" s="46"/>
+      <c r="Z47" s="46"/>
+      <c r="AA47" s="46"/>
+      <c r="AB47" s="46"/>
+      <c r="AC47" s="46"/>
+      <c r="AD47" s="46"/>
+      <c r="AE47" s="46"/>
+      <c r="AF47" s="46"/>
+      <c r="AG47" s="47"/>
     </row>
     <row r="48" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="J48" s="46"/>
-      <c r="K48" s="46"/>
-      <c r="L48" s="46"/>
-      <c r="M48" s="46"/>
-      <c r="N48" s="46"/>
-      <c r="O48" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="P48" s="53"/>
-      <c r="Q48" s="53"/>
-      <c r="R48" s="53"/>
-      <c r="S48" s="53"/>
-      <c r="T48" s="53"/>
-      <c r="U48" s="53"/>
-      <c r="V48" s="53"/>
-      <c r="W48" s="53"/>
-      <c r="X48" s="53"/>
-      <c r="Y48" s="53"/>
-      <c r="Z48" s="53"/>
-      <c r="AA48" s="53"/>
-      <c r="AB48" s="53"/>
-      <c r="AC48" s="53"/>
-      <c r="AD48" s="53"/>
-      <c r="AE48" s="53"/>
-      <c r="AF48" s="53"/>
-      <c r="AG48" s="54"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="62"/>
+      <c r="I48" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="J48" s="60"/>
+      <c r="K48" s="60"/>
+      <c r="L48" s="60"/>
+      <c r="M48" s="60"/>
+      <c r="N48" s="60"/>
+      <c r="O48" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="P48" s="46"/>
+      <c r="Q48" s="46"/>
+      <c r="R48" s="46"/>
+      <c r="S48" s="46"/>
+      <c r="T48" s="46"/>
+      <c r="U48" s="46"/>
+      <c r="V48" s="46"/>
+      <c r="W48" s="46"/>
+      <c r="X48" s="46"/>
+      <c r="Y48" s="46"/>
+      <c r="Z48" s="46"/>
+      <c r="AA48" s="46"/>
+      <c r="AB48" s="46"/>
+      <c r="AC48" s="46"/>
+      <c r="AD48" s="46"/>
+      <c r="AE48" s="46"/>
+      <c r="AF48" s="46"/>
+      <c r="AG48" s="47"/>
     </row>
     <row r="49" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C49" s="51" t="s">
+      <c r="C49" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="51"/>
-      <c r="E49" s="51"/>
-      <c r="F49" s="51"/>
-      <c r="G49" s="51"/>
-      <c r="H49" s="51"/>
-      <c r="I49" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="J49" s="46"/>
-      <c r="K49" s="46"/>
-      <c r="L49" s="46"/>
-      <c r="M49" s="46"/>
-      <c r="N49" s="46"/>
-      <c r="O49" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="P49" s="53"/>
-      <c r="Q49" s="53"/>
-      <c r="R49" s="53"/>
-      <c r="S49" s="53"/>
-      <c r="T49" s="53"/>
-      <c r="U49" s="53"/>
-      <c r="V49" s="53"/>
-      <c r="W49" s="53"/>
-      <c r="X49" s="53"/>
-      <c r="Y49" s="53"/>
-      <c r="Z49" s="53"/>
-      <c r="AA49" s="53"/>
-      <c r="AB49" s="53"/>
-      <c r="AC49" s="53"/>
-      <c r="AD49" s="53"/>
-      <c r="AE49" s="53"/>
-      <c r="AF49" s="53"/>
-      <c r="AG49" s="54"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="64"/>
+      <c r="I49" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="J49" s="60"/>
+      <c r="K49" s="60"/>
+      <c r="L49" s="60"/>
+      <c r="M49" s="60"/>
+      <c r="N49" s="60"/>
+      <c r="O49" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="P49" s="46"/>
+      <c r="Q49" s="46"/>
+      <c r="R49" s="46"/>
+      <c r="S49" s="46"/>
+      <c r="T49" s="46"/>
+      <c r="U49" s="46"/>
+      <c r="V49" s="46"/>
+      <c r="W49" s="46"/>
+      <c r="X49" s="46"/>
+      <c r="Y49" s="46"/>
+      <c r="Z49" s="46"/>
+      <c r="AA49" s="46"/>
+      <c r="AB49" s="46"/>
+      <c r="AC49" s="46"/>
+      <c r="AD49" s="46"/>
+      <c r="AE49" s="46"/>
+      <c r="AF49" s="46"/>
+      <c r="AG49" s="47"/>
     </row>
     <row r="50" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="J50" s="46"/>
-      <c r="K50" s="46"/>
-      <c r="L50" s="46"/>
-      <c r="M50" s="46"/>
-      <c r="N50" s="46"/>
-      <c r="O50" s="52" t="s">
+      <c r="C50" s="65"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="J50" s="60"/>
+      <c r="K50" s="60"/>
+      <c r="L50" s="60"/>
+      <c r="M50" s="60"/>
+      <c r="N50" s="60"/>
+      <c r="O50" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="P50" s="53"/>
-      <c r="Q50" s="53"/>
-      <c r="R50" s="53"/>
-      <c r="S50" s="53"/>
-      <c r="T50" s="53"/>
-      <c r="U50" s="53"/>
-      <c r="V50" s="53"/>
-      <c r="W50" s="53"/>
-      <c r="X50" s="53"/>
-      <c r="Y50" s="53"/>
-      <c r="Z50" s="53"/>
-      <c r="AA50" s="53"/>
-      <c r="AB50" s="53"/>
-      <c r="AC50" s="53"/>
-      <c r="AD50" s="53"/>
-      <c r="AE50" s="53"/>
-      <c r="AF50" s="53"/>
-      <c r="AG50" s="54"/>
+      <c r="P50" s="46"/>
+      <c r="Q50" s="46"/>
+      <c r="R50" s="46"/>
+      <c r="S50" s="46"/>
+      <c r="T50" s="46"/>
+      <c r="U50" s="46"/>
+      <c r="V50" s="46"/>
+      <c r="W50" s="46"/>
+      <c r="X50" s="46"/>
+      <c r="Y50" s="46"/>
+      <c r="Z50" s="46"/>
+      <c r="AA50" s="46"/>
+      <c r="AB50" s="46"/>
+      <c r="AC50" s="46"/>
+      <c r="AD50" s="46"/>
+      <c r="AE50" s="46"/>
+      <c r="AF50" s="46"/>
+      <c r="AG50" s="47"/>
     </row>
     <row r="51" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="46" t="s">
+      <c r="C51" s="62"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="62"/>
+      <c r="I51" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="J51" s="46"/>
-      <c r="K51" s="46"/>
-      <c r="L51" s="46"/>
-      <c r="M51" s="46"/>
-      <c r="N51" s="46"/>
-      <c r="O51" s="52" t="s">
+      <c r="J51" s="60"/>
+      <c r="K51" s="60"/>
+      <c r="L51" s="60"/>
+      <c r="M51" s="60"/>
+      <c r="N51" s="60"/>
+      <c r="O51" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="P51" s="53"/>
-      <c r="Q51" s="53"/>
-      <c r="R51" s="53"/>
-      <c r="S51" s="53"/>
-      <c r="T51" s="53"/>
-      <c r="U51" s="53"/>
-      <c r="V51" s="53"/>
-      <c r="W51" s="53"/>
-      <c r="X51" s="53"/>
-      <c r="Y51" s="53"/>
-      <c r="Z51" s="53"/>
-      <c r="AA51" s="53"/>
-      <c r="AB51" s="53"/>
-      <c r="AC51" s="53"/>
-      <c r="AD51" s="53"/>
-      <c r="AE51" s="53"/>
-      <c r="AF51" s="53"/>
-      <c r="AG51" s="54"/>
+      <c r="P51" s="46"/>
+      <c r="Q51" s="46"/>
+      <c r="R51" s="46"/>
+      <c r="S51" s="46"/>
+      <c r="T51" s="46"/>
+      <c r="U51" s="46"/>
+      <c r="V51" s="46"/>
+      <c r="W51" s="46"/>
+      <c r="X51" s="46"/>
+      <c r="Y51" s="46"/>
+      <c r="Z51" s="46"/>
+      <c r="AA51" s="46"/>
+      <c r="AB51" s="46"/>
+      <c r="AC51" s="46"/>
+      <c r="AD51" s="46"/>
+      <c r="AE51" s="46"/>
+      <c r="AF51" s="46"/>
+      <c r="AG51" s="47"/>
     </row>
     <row r="52" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C52" s="46" t="s">
+      <c r="C52" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="D52" s="46"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="46"/>
-      <c r="I52" s="46" t="s">
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="J52" s="46"/>
-      <c r="K52" s="46"/>
-      <c r="L52" s="46"/>
-      <c r="M52" s="46"/>
-      <c r="N52" s="46"/>
-      <c r="O52" s="52" t="s">
+      <c r="J52" s="60"/>
+      <c r="K52" s="60"/>
+      <c r="L52" s="60"/>
+      <c r="M52" s="60"/>
+      <c r="N52" s="60"/>
+      <c r="O52" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="P52" s="53"/>
-      <c r="Q52" s="53"/>
-      <c r="R52" s="53"/>
-      <c r="S52" s="53"/>
-      <c r="T52" s="53"/>
-      <c r="U52" s="53"/>
-      <c r="V52" s="53"/>
-      <c r="W52" s="53"/>
-      <c r="X52" s="53"/>
-      <c r="Y52" s="53"/>
-      <c r="Z52" s="53"/>
-      <c r="AA52" s="53"/>
-      <c r="AB52" s="53"/>
-      <c r="AC52" s="53"/>
-      <c r="AD52" s="53"/>
-      <c r="AE52" s="53"/>
-      <c r="AF52" s="53"/>
-      <c r="AG52" s="54"/>
+      <c r="P52" s="46"/>
+      <c r="Q52" s="46"/>
+      <c r="R52" s="46"/>
+      <c r="S52" s="46"/>
+      <c r="T52" s="46"/>
+      <c r="U52" s="46"/>
+      <c r="V52" s="46"/>
+      <c r="W52" s="46"/>
+      <c r="X52" s="46"/>
+      <c r="Y52" s="46"/>
+      <c r="Z52" s="46"/>
+      <c r="AA52" s="46"/>
+      <c r="AB52" s="46"/>
+      <c r="AC52" s="46"/>
+      <c r="AD52" s="46"/>
+      <c r="AE52" s="46"/>
+      <c r="AF52" s="46"/>
+      <c r="AG52" s="47"/>
     </row>
     <row r="54" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
@@ -6416,505 +6638,447 @@
       <c r="B56" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="56" t="s">
+      <c r="C56" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="55"/>
-      <c r="I56" s="56" t="s">
+      <c r="D56" s="71"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="71"/>
+      <c r="H56" s="71"/>
+      <c r="I56" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="J56" s="55"/>
-      <c r="K56" s="55"/>
-      <c r="L56" s="55"/>
-      <c r="M56" s="55"/>
-      <c r="N56" s="55"/>
-      <c r="O56" s="55" t="s">
+      <c r="J56" s="71"/>
+      <c r="K56" s="71"/>
+      <c r="L56" s="71"/>
+      <c r="M56" s="71"/>
+      <c r="N56" s="71"/>
+      <c r="O56" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="P56" s="55"/>
-      <c r="Q56" s="58" t="s">
+      <c r="P56" s="71"/>
+      <c r="Q56" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="R56" s="59"/>
-      <c r="S56" s="59"/>
-      <c r="T56" s="59"/>
-      <c r="U56" s="59"/>
-      <c r="V56" s="59"/>
-      <c r="W56" s="59"/>
-      <c r="X56" s="59"/>
-      <c r="Y56" s="59"/>
-      <c r="Z56" s="59"/>
-      <c r="AA56" s="59"/>
-      <c r="AB56" s="59"/>
-      <c r="AC56" s="59"/>
-      <c r="AD56" s="59"/>
-      <c r="AE56" s="59"/>
-      <c r="AF56" s="59"/>
-      <c r="AG56" s="60"/>
+      <c r="R56" s="73"/>
+      <c r="S56" s="73"/>
+      <c r="T56" s="73"/>
+      <c r="U56" s="73"/>
+      <c r="V56" s="73"/>
+      <c r="W56" s="73"/>
+      <c r="X56" s="73"/>
+      <c r="Y56" s="73"/>
+      <c r="Z56" s="73"/>
+      <c r="AA56" s="73"/>
+      <c r="AB56" s="73"/>
+      <c r="AC56" s="73"/>
+      <c r="AD56" s="73"/>
+      <c r="AE56" s="73"/>
+      <c r="AF56" s="73"/>
+      <c r="AG56" s="74"/>
     </row>
     <row r="57" spans="1:33" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B57" s="10">
         <v>1</v>
       </c>
-      <c r="C57" s="57" t="s">
+      <c r="C57" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="D57" s="57"/>
-      <c r="E57" s="57"/>
-      <c r="F57" s="57"/>
-      <c r="G57" s="57"/>
-      <c r="H57" s="57"/>
-      <c r="I57" s="36" t="s">
+      <c r="D57" s="66"/>
+      <c r="E57" s="66"/>
+      <c r="F57" s="66"/>
+      <c r="G57" s="66"/>
+      <c r="H57" s="66"/>
+      <c r="I57" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="J57" s="61"/>
-      <c r="K57" s="61"/>
-      <c r="L57" s="61"/>
-      <c r="M57" s="61"/>
-      <c r="N57" s="61"/>
-      <c r="O57" s="62">
+      <c r="J57" s="67"/>
+      <c r="K57" s="67"/>
+      <c r="L57" s="67"/>
+      <c r="M57" s="67"/>
+      <c r="N57" s="67"/>
+      <c r="O57" s="68">
         <v>5</v>
       </c>
-      <c r="P57" s="63"/>
-      <c r="Q57" s="66" t="s">
+      <c r="P57" s="69"/>
+      <c r="Q57" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="R57" s="67"/>
-      <c r="S57" s="67"/>
-      <c r="T57" s="67"/>
-      <c r="U57" s="67"/>
-      <c r="V57" s="67"/>
-      <c r="W57" s="67"/>
-      <c r="X57" s="67"/>
-      <c r="Y57" s="67"/>
-      <c r="Z57" s="67"/>
-      <c r="AA57" s="67"/>
-      <c r="AB57" s="67"/>
-      <c r="AC57" s="67"/>
-      <c r="AD57" s="67"/>
-      <c r="AE57" s="67"/>
-      <c r="AF57" s="67"/>
-      <c r="AG57" s="68"/>
+      <c r="R57" s="49"/>
+      <c r="S57" s="49"/>
+      <c r="T57" s="49"/>
+      <c r="U57" s="49"/>
+      <c r="V57" s="49"/>
+      <c r="W57" s="49"/>
+      <c r="X57" s="49"/>
+      <c r="Y57" s="49"/>
+      <c r="Z57" s="49"/>
+      <c r="AA57" s="49"/>
+      <c r="AB57" s="49"/>
+      <c r="AC57" s="49"/>
+      <c r="AD57" s="49"/>
+      <c r="AE57" s="49"/>
+      <c r="AF57" s="49"/>
+      <c r="AG57" s="50"/>
     </row>
     <row r="58" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="8"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="45"/>
-      <c r="F58" s="45"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="46" t="s">
+      <c r="C58" s="65"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="65"/>
+      <c r="H58" s="65"/>
+      <c r="I58" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="46"/>
-      <c r="K58" s="46"/>
-      <c r="L58" s="46"/>
-      <c r="M58" s="46"/>
-      <c r="N58" s="46"/>
-      <c r="O58" s="64">
+      <c r="J58" s="60"/>
+      <c r="K58" s="60"/>
+      <c r="L58" s="60"/>
+      <c r="M58" s="60"/>
+      <c r="N58" s="60"/>
+      <c r="O58" s="61">
         <v>10</v>
       </c>
-      <c r="P58" s="64"/>
-      <c r="Q58" s="69"/>
-      <c r="R58" s="70"/>
-      <c r="S58" s="70"/>
-      <c r="T58" s="70"/>
-      <c r="U58" s="70"/>
-      <c r="V58" s="70"/>
-      <c r="W58" s="70"/>
-      <c r="X58" s="70"/>
-      <c r="Y58" s="70"/>
-      <c r="Z58" s="70"/>
-      <c r="AA58" s="70"/>
-      <c r="AB58" s="70"/>
-      <c r="AC58" s="70"/>
-      <c r="AD58" s="70"/>
-      <c r="AE58" s="70"/>
-      <c r="AF58" s="70"/>
-      <c r="AG58" s="71"/>
+      <c r="P58" s="61"/>
+      <c r="Q58" s="51"/>
+      <c r="R58" s="52"/>
+      <c r="S58" s="52"/>
+      <c r="T58" s="52"/>
+      <c r="U58" s="52"/>
+      <c r="V58" s="52"/>
+      <c r="W58" s="52"/>
+      <c r="X58" s="52"/>
+      <c r="Y58" s="52"/>
+      <c r="Z58" s="52"/>
+      <c r="AA58" s="52"/>
+      <c r="AB58" s="52"/>
+      <c r="AC58" s="52"/>
+      <c r="AD58" s="52"/>
+      <c r="AE58" s="52"/>
+      <c r="AF58" s="52"/>
+      <c r="AG58" s="53"/>
     </row>
     <row r="59" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="8"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="45"/>
-      <c r="F59" s="45"/>
-      <c r="G59" s="45"/>
-      <c r="H59" s="45"/>
-      <c r="I59" s="46" t="s">
+      <c r="C59" s="65"/>
+      <c r="D59" s="65"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="65"/>
+      <c r="H59" s="65"/>
+      <c r="I59" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="J59" s="46"/>
-      <c r="K59" s="46"/>
-      <c r="L59" s="46"/>
-      <c r="M59" s="46"/>
-      <c r="N59" s="46"/>
-      <c r="O59" s="64">
+      <c r="J59" s="60"/>
+      <c r="K59" s="60"/>
+      <c r="L59" s="60"/>
+      <c r="M59" s="60"/>
+      <c r="N59" s="60"/>
+      <c r="O59" s="61">
         <v>100</v>
       </c>
-      <c r="P59" s="64"/>
-      <c r="Q59" s="69"/>
-      <c r="R59" s="70"/>
-      <c r="S59" s="70"/>
-      <c r="T59" s="70"/>
-      <c r="U59" s="70"/>
-      <c r="V59" s="70"/>
-      <c r="W59" s="70"/>
-      <c r="X59" s="70"/>
-      <c r="Y59" s="70"/>
-      <c r="Z59" s="70"/>
-      <c r="AA59" s="70"/>
-      <c r="AB59" s="70"/>
-      <c r="AC59" s="70"/>
-      <c r="AD59" s="70"/>
-      <c r="AE59" s="70"/>
-      <c r="AF59" s="70"/>
-      <c r="AG59" s="71"/>
+      <c r="P59" s="61"/>
+      <c r="Q59" s="51"/>
+      <c r="R59" s="52"/>
+      <c r="S59" s="52"/>
+      <c r="T59" s="52"/>
+      <c r="U59" s="52"/>
+      <c r="V59" s="52"/>
+      <c r="W59" s="52"/>
+      <c r="X59" s="52"/>
+      <c r="Y59" s="52"/>
+      <c r="Z59" s="52"/>
+      <c r="AA59" s="52"/>
+      <c r="AB59" s="52"/>
+      <c r="AC59" s="52"/>
+      <c r="AD59" s="52"/>
+      <c r="AE59" s="52"/>
+      <c r="AF59" s="52"/>
+      <c r="AG59" s="53"/>
     </row>
     <row r="60" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="8"/>
-      <c r="C60" s="45"/>
-      <c r="D60" s="45"/>
-      <c r="E60" s="45"/>
-      <c r="F60" s="45"/>
-      <c r="G60" s="45"/>
-      <c r="H60" s="45"/>
-      <c r="I60" s="46" t="s">
+      <c r="C60" s="65"/>
+      <c r="D60" s="65"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="65"/>
+      <c r="G60" s="65"/>
+      <c r="H60" s="65"/>
+      <c r="I60" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="J60" s="46"/>
-      <c r="K60" s="46"/>
-      <c r="L60" s="46"/>
-      <c r="M60" s="46"/>
-      <c r="N60" s="46"/>
-      <c r="O60" s="64">
+      <c r="J60" s="60"/>
+      <c r="K60" s="60"/>
+      <c r="L60" s="60"/>
+      <c r="M60" s="60"/>
+      <c r="N60" s="60"/>
+      <c r="O60" s="61">
         <v>15</v>
       </c>
-      <c r="P60" s="64"/>
-      <c r="Q60" s="69"/>
-      <c r="R60" s="70"/>
-      <c r="S60" s="70"/>
-      <c r="T60" s="70"/>
-      <c r="U60" s="70"/>
-      <c r="V60" s="70"/>
-      <c r="W60" s="70"/>
-      <c r="X60" s="70"/>
-      <c r="Y60" s="70"/>
-      <c r="Z60" s="70"/>
-      <c r="AA60" s="70"/>
-      <c r="AB60" s="70"/>
-      <c r="AC60" s="70"/>
-      <c r="AD60" s="70"/>
-      <c r="AE60" s="70"/>
-      <c r="AF60" s="70"/>
-      <c r="AG60" s="71"/>
+      <c r="P60" s="61"/>
+      <c r="Q60" s="51"/>
+      <c r="R60" s="52"/>
+      <c r="S60" s="52"/>
+      <c r="T60" s="52"/>
+      <c r="U60" s="52"/>
+      <c r="V60" s="52"/>
+      <c r="W60" s="52"/>
+      <c r="X60" s="52"/>
+      <c r="Y60" s="52"/>
+      <c r="Z60" s="52"/>
+      <c r="AA60" s="52"/>
+      <c r="AB60" s="52"/>
+      <c r="AC60" s="52"/>
+      <c r="AD60" s="52"/>
+      <c r="AE60" s="52"/>
+      <c r="AF60" s="52"/>
+      <c r="AG60" s="53"/>
     </row>
     <row r="61" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="8"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="45"/>
-      <c r="F61" s="45"/>
-      <c r="G61" s="45"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="J61" s="46"/>
-      <c r="K61" s="46"/>
-      <c r="L61" s="46"/>
-      <c r="M61" s="46"/>
-      <c r="N61" s="46"/>
-      <c r="O61" s="64">
+      <c r="C61" s="65"/>
+      <c r="D61" s="65"/>
+      <c r="E61" s="65"/>
+      <c r="F61" s="65"/>
+      <c r="G61" s="65"/>
+      <c r="H61" s="65"/>
+      <c r="I61" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="J61" s="60"/>
+      <c r="K61" s="60"/>
+      <c r="L61" s="60"/>
+      <c r="M61" s="60"/>
+      <c r="N61" s="60"/>
+      <c r="O61" s="61">
         <v>20</v>
       </c>
-      <c r="P61" s="64"/>
-      <c r="Q61" s="69"/>
-      <c r="R61" s="70"/>
-      <c r="S61" s="70"/>
-      <c r="T61" s="70"/>
-      <c r="U61" s="70"/>
-      <c r="V61" s="70"/>
-      <c r="W61" s="70"/>
-      <c r="X61" s="70"/>
-      <c r="Y61" s="70"/>
-      <c r="Z61" s="70"/>
-      <c r="AA61" s="70"/>
-      <c r="AB61" s="70"/>
-      <c r="AC61" s="70"/>
-      <c r="AD61" s="70"/>
-      <c r="AE61" s="70"/>
-      <c r="AF61" s="70"/>
-      <c r="AG61" s="71"/>
+      <c r="P61" s="61"/>
+      <c r="Q61" s="51"/>
+      <c r="R61" s="52"/>
+      <c r="S61" s="52"/>
+      <c r="T61" s="52"/>
+      <c r="U61" s="52"/>
+      <c r="V61" s="52"/>
+      <c r="W61" s="52"/>
+      <c r="X61" s="52"/>
+      <c r="Y61" s="52"/>
+      <c r="Z61" s="52"/>
+      <c r="AA61" s="52"/>
+      <c r="AB61" s="52"/>
+      <c r="AC61" s="52"/>
+      <c r="AD61" s="52"/>
+      <c r="AE61" s="52"/>
+      <c r="AF61" s="52"/>
+      <c r="AG61" s="53"/>
     </row>
     <row r="62" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="9"/>
-      <c r="C62" s="47"/>
-      <c r="D62" s="47"/>
-      <c r="E62" s="47"/>
-      <c r="F62" s="47"/>
-      <c r="G62" s="47"/>
-      <c r="H62" s="47"/>
-      <c r="I62" s="65" t="s">
+      <c r="C62" s="62"/>
+      <c r="D62" s="62"/>
+      <c r="E62" s="62"/>
+      <c r="F62" s="62"/>
+      <c r="G62" s="62"/>
+      <c r="H62" s="62"/>
+      <c r="I62" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="J62" s="65"/>
-      <c r="K62" s="65"/>
-      <c r="L62" s="65"/>
-      <c r="M62" s="65"/>
-      <c r="N62" s="65"/>
-      <c r="O62" s="65">
+      <c r="J62" s="63"/>
+      <c r="K62" s="63"/>
+      <c r="L62" s="63"/>
+      <c r="M62" s="63"/>
+      <c r="N62" s="63"/>
+      <c r="O62" s="63">
         <f>SUM(O57:P61)</f>
         <v>150</v>
       </c>
-      <c r="P62" s="65"/>
-      <c r="Q62" s="48"/>
-      <c r="R62" s="49"/>
-      <c r="S62" s="49"/>
-      <c r="T62" s="49"/>
-      <c r="U62" s="49"/>
-      <c r="V62" s="49"/>
-      <c r="W62" s="49"/>
-      <c r="X62" s="49"/>
-      <c r="Y62" s="49"/>
-      <c r="Z62" s="49"/>
-      <c r="AA62" s="49"/>
-      <c r="AB62" s="49"/>
-      <c r="AC62" s="49"/>
-      <c r="AD62" s="49"/>
-      <c r="AE62" s="49"/>
-      <c r="AF62" s="49"/>
-      <c r="AG62" s="50"/>
+      <c r="P62" s="63"/>
+      <c r="Q62" s="57"/>
+      <c r="R62" s="58"/>
+      <c r="S62" s="58"/>
+      <c r="T62" s="58"/>
+      <c r="U62" s="58"/>
+      <c r="V62" s="58"/>
+      <c r="W62" s="58"/>
+      <c r="X62" s="58"/>
+      <c r="Y62" s="58"/>
+      <c r="Z62" s="58"/>
+      <c r="AA62" s="58"/>
+      <c r="AB62" s="58"/>
+      <c r="AC62" s="58"/>
+      <c r="AD62" s="58"/>
+      <c r="AE62" s="58"/>
+      <c r="AF62" s="58"/>
+      <c r="AG62" s="59"/>
     </row>
     <row r="63" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="7">
         <v>2</v>
       </c>
-      <c r="C63" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="D63" s="51"/>
-      <c r="E63" s="51"/>
-      <c r="F63" s="51"/>
-      <c r="G63" s="51"/>
-      <c r="H63" s="51"/>
-      <c r="I63" s="46" t="s">
+      <c r="C63" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="D63" s="64"/>
+      <c r="E63" s="64"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="64"/>
+      <c r="H63" s="64"/>
+      <c r="I63" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="J63" s="46"/>
-      <c r="K63" s="46"/>
-      <c r="L63" s="46"/>
-      <c r="M63" s="46"/>
-      <c r="N63" s="46"/>
-      <c r="O63" s="64">
+      <c r="J63" s="60"/>
+      <c r="K63" s="60"/>
+      <c r="L63" s="60"/>
+      <c r="M63" s="60"/>
+      <c r="N63" s="60"/>
+      <c r="O63" s="61">
         <v>50</v>
       </c>
-      <c r="P63" s="64"/>
-      <c r="Q63" s="72" t="s">
+      <c r="P63" s="61"/>
+      <c r="Q63" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="R63" s="73"/>
-      <c r="S63" s="73"/>
-      <c r="T63" s="73"/>
-      <c r="U63" s="73"/>
-      <c r="V63" s="73"/>
-      <c r="W63" s="73"/>
-      <c r="X63" s="73"/>
-      <c r="Y63" s="73"/>
-      <c r="Z63" s="73"/>
-      <c r="AA63" s="73"/>
-      <c r="AB63" s="73"/>
-      <c r="AC63" s="73"/>
-      <c r="AD63" s="73"/>
-      <c r="AE63" s="73"/>
-      <c r="AF63" s="73"/>
-      <c r="AG63" s="74"/>
+      <c r="R63" s="55"/>
+      <c r="S63" s="55"/>
+      <c r="T63" s="55"/>
+      <c r="U63" s="55"/>
+      <c r="V63" s="55"/>
+      <c r="W63" s="55"/>
+      <c r="X63" s="55"/>
+      <c r="Y63" s="55"/>
+      <c r="Z63" s="55"/>
+      <c r="AA63" s="55"/>
+      <c r="AB63" s="55"/>
+      <c r="AC63" s="55"/>
+      <c r="AD63" s="55"/>
+      <c r="AE63" s="55"/>
+      <c r="AF63" s="55"/>
+      <c r="AG63" s="56"/>
     </row>
     <row r="64" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="8"/>
-      <c r="C64" s="45"/>
-      <c r="D64" s="45"/>
-      <c r="E64" s="45"/>
-      <c r="F64" s="45"/>
-      <c r="G64" s="45"/>
-      <c r="H64" s="45"/>
-      <c r="I64" s="46" t="s">
+      <c r="C64" s="65"/>
+      <c r="D64" s="65"/>
+      <c r="E64" s="65"/>
+      <c r="F64" s="65"/>
+      <c r="G64" s="65"/>
+      <c r="H64" s="65"/>
+      <c r="I64" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="J64" s="46"/>
-      <c r="K64" s="46"/>
-      <c r="L64" s="46"/>
-      <c r="M64" s="46"/>
-      <c r="N64" s="46"/>
-      <c r="O64" s="64">
+      <c r="J64" s="60"/>
+      <c r="K64" s="60"/>
+      <c r="L64" s="60"/>
+      <c r="M64" s="60"/>
+      <c r="N64" s="60"/>
+      <c r="O64" s="61">
         <v>5</v>
       </c>
-      <c r="P64" s="64"/>
-      <c r="Q64" s="69"/>
-      <c r="R64" s="70"/>
-      <c r="S64" s="70"/>
-      <c r="T64" s="70"/>
-      <c r="U64" s="70"/>
-      <c r="V64" s="70"/>
-      <c r="W64" s="70"/>
-      <c r="X64" s="70"/>
-      <c r="Y64" s="70"/>
-      <c r="Z64" s="70"/>
-      <c r="AA64" s="70"/>
-      <c r="AB64" s="70"/>
-      <c r="AC64" s="70"/>
-      <c r="AD64" s="70"/>
-      <c r="AE64" s="70"/>
-      <c r="AF64" s="70"/>
-      <c r="AG64" s="71"/>
+      <c r="P64" s="61"/>
+      <c r="Q64" s="51"/>
+      <c r="R64" s="52"/>
+      <c r="S64" s="52"/>
+      <c r="T64" s="52"/>
+      <c r="U64" s="52"/>
+      <c r="V64" s="52"/>
+      <c r="W64" s="52"/>
+      <c r="X64" s="52"/>
+      <c r="Y64" s="52"/>
+      <c r="Z64" s="52"/>
+      <c r="AA64" s="52"/>
+      <c r="AB64" s="52"/>
+      <c r="AC64" s="52"/>
+      <c r="AD64" s="52"/>
+      <c r="AE64" s="52"/>
+      <c r="AF64" s="52"/>
+      <c r="AG64" s="53"/>
     </row>
     <row r="65" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="9"/>
-      <c r="C65" s="47"/>
-      <c r="D65" s="47"/>
-      <c r="E65" s="47"/>
-      <c r="F65" s="47"/>
-      <c r="G65" s="47"/>
-      <c r="H65" s="47"/>
-      <c r="I65" s="65" t="s">
+      <c r="C65" s="62"/>
+      <c r="D65" s="62"/>
+      <c r="E65" s="62"/>
+      <c r="F65" s="62"/>
+      <c r="G65" s="62"/>
+      <c r="H65" s="62"/>
+      <c r="I65" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="J65" s="65"/>
-      <c r="K65" s="65"/>
-      <c r="L65" s="65"/>
-      <c r="M65" s="65"/>
-      <c r="N65" s="65"/>
-      <c r="O65" s="65">
+      <c r="J65" s="63"/>
+      <c r="K65" s="63"/>
+      <c r="L65" s="63"/>
+      <c r="M65" s="63"/>
+      <c r="N65" s="63"/>
+      <c r="O65" s="63">
         <v>55</v>
       </c>
-      <c r="P65" s="65"/>
-      <c r="Q65" s="48"/>
-      <c r="R65" s="49"/>
-      <c r="S65" s="49"/>
-      <c r="T65" s="49"/>
-      <c r="U65" s="49"/>
-      <c r="V65" s="49"/>
-      <c r="W65" s="49"/>
-      <c r="X65" s="49"/>
-      <c r="Y65" s="49"/>
-      <c r="Z65" s="49"/>
-      <c r="AA65" s="49"/>
-      <c r="AB65" s="49"/>
-      <c r="AC65" s="49"/>
-      <c r="AD65" s="49"/>
-      <c r="AE65" s="49"/>
-      <c r="AF65" s="49"/>
-      <c r="AG65" s="50"/>
+      <c r="P65" s="63"/>
+      <c r="Q65" s="57"/>
+      <c r="R65" s="58"/>
+      <c r="S65" s="58"/>
+      <c r="T65" s="58"/>
+      <c r="U65" s="58"/>
+      <c r="V65" s="58"/>
+      <c r="W65" s="58"/>
+      <c r="X65" s="58"/>
+      <c r="Y65" s="58"/>
+      <c r="Z65" s="58"/>
+      <c r="AA65" s="58"/>
+      <c r="AB65" s="58"/>
+      <c r="AC65" s="58"/>
+      <c r="AD65" s="58"/>
+      <c r="AE65" s="58"/>
+      <c r="AF65" s="58"/>
+      <c r="AG65" s="59"/>
     </row>
     <row r="66" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="6">
         <v>3</v>
       </c>
-      <c r="C66" s="46" t="s">
+      <c r="C66" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="D66" s="46"/>
-      <c r="E66" s="46"/>
-      <c r="F66" s="46"/>
-      <c r="G66" s="46"/>
-      <c r="H66" s="46"/>
-      <c r="I66" s="46" t="s">
+      <c r="D66" s="60"/>
+      <c r="E66" s="60"/>
+      <c r="F66" s="60"/>
+      <c r="G66" s="60"/>
+      <c r="H66" s="60"/>
+      <c r="I66" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="J66" s="46"/>
-      <c r="K66" s="46"/>
-      <c r="L66" s="46"/>
-      <c r="M66" s="46"/>
-      <c r="N66" s="46"/>
-      <c r="O66" s="64" t="s">
+      <c r="J66" s="60"/>
+      <c r="K66" s="60"/>
+      <c r="L66" s="60"/>
+      <c r="M66" s="60"/>
+      <c r="N66" s="60"/>
+      <c r="O66" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="P66" s="64"/>
-      <c r="Q66" s="52" t="s">
+      <c r="P66" s="61"/>
+      <c r="Q66" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="R66" s="53"/>
-      <c r="S66" s="53"/>
-      <c r="T66" s="53"/>
-      <c r="U66" s="53"/>
-      <c r="V66" s="53"/>
-      <c r="W66" s="53"/>
-      <c r="X66" s="53"/>
-      <c r="Y66" s="53"/>
-      <c r="Z66" s="53"/>
-      <c r="AA66" s="53"/>
-      <c r="AB66" s="53"/>
-      <c r="AC66" s="53"/>
-      <c r="AD66" s="53"/>
-      <c r="AE66" s="53"/>
-      <c r="AF66" s="53"/>
-      <c r="AG66" s="54"/>
+      <c r="R66" s="46"/>
+      <c r="S66" s="46"/>
+      <c r="T66" s="46"/>
+      <c r="U66" s="46"/>
+      <c r="V66" s="46"/>
+      <c r="W66" s="46"/>
+      <c r="X66" s="46"/>
+      <c r="Y66" s="46"/>
+      <c r="Z66" s="46"/>
+      <c r="AA66" s="46"/>
+      <c r="AB66" s="46"/>
+      <c r="AC66" s="46"/>
+      <c r="AD66" s="46"/>
+      <c r="AE66" s="46"/>
+      <c r="AF66" s="46"/>
+      <c r="AG66" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="Q66:AG66"/>
-    <mergeCell ref="Q57:AG57"/>
-    <mergeCell ref="Q58:AG58"/>
-    <mergeCell ref="Q59:AG59"/>
-    <mergeCell ref="Q60:AG60"/>
-    <mergeCell ref="Q61:AG61"/>
-    <mergeCell ref="Q63:AG63"/>
-    <mergeCell ref="Q64:AG64"/>
-    <mergeCell ref="Q65:AG65"/>
-    <mergeCell ref="O43:AG43"/>
-    <mergeCell ref="O44:AG44"/>
-    <mergeCell ref="O46:AG46"/>
-    <mergeCell ref="O47:AG47"/>
-    <mergeCell ref="O48:AG48"/>
-    <mergeCell ref="O45:AG45"/>
-    <mergeCell ref="C66:H66"/>
-    <mergeCell ref="I66:N66"/>
-    <mergeCell ref="O66:P66"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="I62:N62"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="I63:N63"/>
-    <mergeCell ref="O63:P63"/>
-    <mergeCell ref="C64:H64"/>
-    <mergeCell ref="I64:N64"/>
-    <mergeCell ref="O64:P64"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="I61:N61"/>
-    <mergeCell ref="O61:P61"/>
-    <mergeCell ref="C65:H65"/>
-    <mergeCell ref="I65:N65"/>
-    <mergeCell ref="O65:P65"/>
-    <mergeCell ref="I59:N59"/>
-    <mergeCell ref="O59:P59"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="I60:N60"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="I57:N57"/>
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="I58:N58"/>
-    <mergeCell ref="O58:P58"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="I52:N52"/>
-    <mergeCell ref="O52:AG52"/>
-    <mergeCell ref="Q56:AG56"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="I43:N43"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="I44:N44"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="I46:N46"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="I45:N45"/>
     <mergeCell ref="C47:H47"/>
     <mergeCell ref="I47:N47"/>
     <mergeCell ref="C48:H48"/>
@@ -6931,6 +7095,64 @@
     <mergeCell ref="O51:AG51"/>
     <mergeCell ref="O56:P56"/>
     <mergeCell ref="I56:N56"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="I43:N43"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="I44:N44"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="I46:N46"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="I45:N45"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="I52:N52"/>
+    <mergeCell ref="O52:AG52"/>
+    <mergeCell ref="Q56:AG56"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="I57:N57"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="I58:N58"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="I59:N59"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="I60:N60"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="I61:N61"/>
+    <mergeCell ref="O61:P61"/>
+    <mergeCell ref="C65:H65"/>
+    <mergeCell ref="I65:N65"/>
+    <mergeCell ref="O65:P65"/>
+    <mergeCell ref="C66:H66"/>
+    <mergeCell ref="I66:N66"/>
+    <mergeCell ref="O66:P66"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="I62:N62"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="I63:N63"/>
+    <mergeCell ref="O63:P63"/>
+    <mergeCell ref="C64:H64"/>
+    <mergeCell ref="I64:N64"/>
+    <mergeCell ref="O64:P64"/>
+    <mergeCell ref="O43:AG43"/>
+    <mergeCell ref="O44:AG44"/>
+    <mergeCell ref="O46:AG46"/>
+    <mergeCell ref="O47:AG47"/>
+    <mergeCell ref="O48:AG48"/>
+    <mergeCell ref="O45:AG45"/>
+    <mergeCell ref="Q66:AG66"/>
+    <mergeCell ref="Q57:AG57"/>
+    <mergeCell ref="Q58:AG58"/>
+    <mergeCell ref="Q59:AG59"/>
+    <mergeCell ref="Q60:AG60"/>
+    <mergeCell ref="Q61:AG61"/>
+    <mergeCell ref="Q63:AG63"/>
+    <mergeCell ref="Q64:AG64"/>
+    <mergeCell ref="Q65:AG65"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
